--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2851.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2851.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.174278113618257</v>
+        <v>1.315045833587646</v>
       </c>
       <c r="B1">
-        <v>2.229250307966777</v>
+        <v>1.755271911621094</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.193210601806641</v>
       </c>
       <c r="D1">
-        <v>2.325512082245344</v>
+        <v>3.043334484100342</v>
       </c>
       <c r="E1">
-        <v>1.225660739096536</v>
+        <v>1.123455405235291</v>
       </c>
     </row>
   </sheetData>
